--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -1,55 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Dropbox/Etalab/schema-hautes-remunerations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97268C9-4DA1-934E-BB64-1AC0604F6F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{68327E07-F75B-954C-AA76-F17C759F1937}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="exemple_valide" localSheetId="0">Feuil1!$A$1:$H$3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{FC919531-DD2A-544F-997B-06BE5325C282}" name="exemple-valide" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/mario/Dropbox/Etalab/schema-hautes-remunerations/exemple-valide.csv" decimal="," thousands=" " tab="0" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>date_creation</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>Brouette</t>
-  </si>
-  <si>
-    <t>Tracteur</t>
-  </si>
-  <si>
-    <t>Pelle</t>
-  </si>
-  <si>
-    <t>Bus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>siren</t>
+  </si>
+  <si>
+    <t>denomination_employeur</t>
+  </si>
+  <si>
+    <t>annee</t>
+  </si>
+  <si>
+    <t>somme_10_plus_hautes_remunerations</t>
+  </si>
+  <si>
+    <t>nb_femmes_beneficiaires</t>
+  </si>
+  <si>
+    <t>nb_hommes_beneficiaires</t>
+  </si>
+  <si>
+    <t>duree_cumulee_mois</t>
+  </si>
+  <si>
+    <t>commentaires</t>
+  </si>
+  <si>
+    <t>110 043 015</t>
+  </si>
+  <si>
+    <t>Ministère de l'éducation nationale et de la jeunesse et  ministère de l'enseignement supérieur, de la recherche et de l'innovation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,88 +105,189 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="exemple-valide" connectionId="1" xr16:uid="{1611F40C-B750-A74A-A984-A025EAFBC2DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,75 +428,107 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9830E688-58EA-0344-992A-3259DD6E954C}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2">
+        <v>1653838</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>1685542</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Dropbox/Etalab/schema-hautes-remunerations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97268C9-4DA1-934E-BB64-1AC0604F6F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38DECBE-4BD2-444D-A6A5-277EF9520C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{68327E07-F75B-954C-AA76-F17C759F1937}"/>
+    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{0B3458AC-58AA-D34F-A842-1D3036549786}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="exemple_valide" localSheetId="0">Feuil1!$A$1:$H$3</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,27 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{FC919531-DD2A-544F-997B-06BE5325C282}" name="exemple-valide" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/mario/Dropbox/Etalab/schema-hautes-remunerations/exemple-valide.csv" decimal="," thousands=" " tab="0" semicolon="1">
-      <textFields count="8">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>siren</t>
   </si>
@@ -79,9 +57,6 @@
   </si>
   <si>
     <t>commentaires</t>
-  </si>
-  <si>
-    <t>110 043 015</t>
   </si>
   <si>
     <t>Ministère de l'éducation nationale et de la jeunesse et  ministère de l'enseignement supérieur, de la recherche et de l'innovation</t>
@@ -137,10 +112,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="exemple-valide" connectionId="1" xr16:uid="{1611F40C-B750-A74A-A984-A025EAFBC2DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,22 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9830E688-58EA-0344-992A-3259DD6E954C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68012222-CB58-F849-BE33-FBCC38C99F22}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -483,11 +446,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>110043015</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -506,11 +469,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>110043015</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>2019</v>

--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Dropbox/Etalab/schema-hautes-remunerations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38DECBE-4BD2-444D-A6A5-277EF9520C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{0B3458AC-58AA-D34F-A842-1D3036549786}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>siren</t>
   </si>
@@ -59,206 +37,172 @@
     <t>commentaires</t>
   </si>
   <si>
-    <t>Ministère de l'éducation nationale et de la jeunesse et  ministère de l'enseignement supérieur, de la recherche et de l'innovation</t>
+    <t>110043015</t>
+  </si>
+  <si>
+    <t>Ministère de l'éducation nationale et de la jeunesse et ministère de l'enseignement supérieur, de la recherche et de l'innovation</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>pas de commentaire</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,99 +343,98 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68012222-CB58-F849-BE33-FBCC38C99F22}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>110043015</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>2018</v>
-      </c>
-      <c r="D2">
-        <v>1653838</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>120</v>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1653838.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>110043015</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2019</v>
-      </c>
-      <c r="D3">
-        <v>1685542</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>120</v>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1653838.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>siren</t>
   </si>
@@ -19,6 +19,9 @@
     <t>denomination_employeur</t>
   </si>
   <si>
+    <t>type_administration</t>
+  </si>
+  <si>
     <t>annee</t>
   </si>
   <si>
@@ -37,51 +40,39 @@
     <t>commentaires</t>
   </si>
   <si>
-    <t>110043015</t>
-  </si>
-  <si>
     <t>Ministère de l'éducation nationale et de la jeunesse et ministère de l'enseignement supérieur, de la recherche et de l'innovation</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>pas de commentaire</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>Département ministériel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +81,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFB0B3B2"/>
+        <bgColor rgb="FFB0B3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,46 +96,37 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,76 +351,81 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="2">
+        <v>1.10043015E8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="E2" s="3">
         <v>1653838.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="3">
         <v>7.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="3">
         <v>3.0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="3">
         <v>120.0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2">
+        <v>1.10043015E8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1653838.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1685542.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="3">
         <v>120.0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I3" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
